--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
@@ -2450,7 +2450,7 @@
   </sheetPr>
   <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A115" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4155,7 +4155,7 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
@@ -790,32 +790,39 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Groupes" displayName="Groupes" ref="A3:A28" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <tableColumns count="1">
+    <tableColumn id="1" name=""/>
+  </tableColumns>
+</table>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="28.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="8.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="8.4"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,526 +956,13 @@
       <c r="H8" s="8"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="6"/>
-      <c r="G9" s="9" t="str">
-        <f aca="false">IF(Intervenants!D9="Vacataire",Intervenants!A9,"")</f>
-        <v/>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="6"/>
-      <c r="G10" s="9" t="str">
-        <f aca="false">IF(Intervenants!D10="Vacataire",Intervenants!A10,"")</f>
-        <v/>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="7"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="6"/>
-      <c r="G11" s="9" t="str">
-        <f aca="false">IF(Intervenants!D11="Vacataire",Intervenants!A11,"")</f>
-        <v/>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="6"/>
-      <c r="G12" s="9" t="str">
-        <f aca="false">IF(Intervenants!D12="Vacataire",Intervenants!A12,"")</f>
-        <v/>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="6"/>
-      <c r="G13" s="9" t="str">
-        <f aca="false">IF(Intervenants!D13="Vacataire",Intervenants!A13,"")</f>
-        <v/>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6"/>
-      <c r="G14" s="9" t="str">
-        <f aca="false">IF(Intervenants!D14="Vacataire",Intervenants!A14,"")</f>
-        <v/>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="7"/>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="6"/>
-      <c r="G15" s="9" t="str">
-        <f aca="false">IF(Intervenants!D15="Vacataire",Intervenants!A15,"")</f>
-        <v/>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="7"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6"/>
-      <c r="G16" s="9" t="str">
-        <f aca="false">IF(Intervenants!D16="Vacataire",Intervenants!A16,"")</f>
-        <v/>
-      </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="G17" s="9" t="str">
-        <f aca="false">IF(Intervenants!D17="Vacataire",Intervenants!A17,"")</f>
-        <v/>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="G18" s="9" t="str">
-        <f aca="false">IF(Intervenants!D18="Vacataire",Intervenants!A18,"")</f>
-        <v/>
-      </c>
-      <c r="H18" s="8"/>
-      <c r="I18" s="7"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="6"/>
-      <c r="G19" s="9" t="str">
-        <f aca="false">IF(Intervenants!D19="Vacataire",Intervenants!A19,"")</f>
-        <v/>
-      </c>
-      <c r="H19" s="8"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="G20" s="9" t="str">
-        <f aca="false">IF(Intervenants!D20="Vacataire",Intervenants!A20,"")</f>
-        <v/>
-      </c>
-      <c r="H20" s="8"/>
-      <c r="I20" s="7"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="6"/>
-      <c r="G21" s="9" t="str">
-        <f aca="false">IF(Intervenants!D21="Vacataire",Intervenants!A21,"")</f>
-        <v/>
-      </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="7"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="6"/>
-      <c r="G22" s="9" t="str">
-        <f aca="false">IF(Intervenants!D22="Vacataire",Intervenants!A22,"")</f>
-        <v/>
-      </c>
-      <c r="H22" s="8"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="6"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6"/>
-      <c r="G23" s="9" t="str">
-        <f aca="false">IF(Intervenants!D23="Vacataire",Intervenants!A23,"")</f>
-        <v/>
-      </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="7"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="6"/>
-      <c r="G24" s="9" t="str">
-        <f aca="false">IF(Intervenants!D24="Vacataire",Intervenants!A24,"")</f>
-        <v/>
-      </c>
-      <c r="H24" s="8"/>
-      <c r="I24" s="7"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6"/>
-      <c r="G25" s="9" t="str">
-        <f aca="false">IF(Intervenants!D25="Vacataire",Intervenants!A25,"")</f>
-        <v/>
-      </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="7"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="6"/>
-      <c r="G26" s="9" t="str">
-        <f aca="false">IF(Intervenants!D26="Vacataire",Intervenants!A26,"")</f>
-        <v/>
-      </c>
-      <c r="H26" s="8"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="6"/>
-      <c r="G27" s="9" t="str">
-        <f aca="false">IF(Intervenants!D27="Vacataire",Intervenants!A27,"")</f>
-        <v/>
-      </c>
-      <c r="H27" s="8"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="6"/>
-      <c r="G28" s="9" t="str">
-        <f aca="false">IF(Intervenants!D28="Vacataire",Intervenants!A28,"")</f>
-        <v/>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="6"/>
-      <c r="G29" s="9" t="str">
-        <f aca="false">IF(Intervenants!D29="Vacataire",Intervenants!A29,"")</f>
-        <v/>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="6"/>
-      <c r="G30" s="9" t="str">
-        <f aca="false">IF(Intervenants!D30="Vacataire",Intervenants!A30,"")</f>
-        <v/>
-      </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="7"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="G31" s="9" t="str">
-        <f aca="false">IF(Intervenants!D31="Vacataire",Intervenants!A31,"")</f>
-        <v/>
-      </c>
-      <c r="H31" s="8"/>
-      <c r="I31" s="7"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6"/>
-      <c r="G32" s="9" t="str">
-        <f aca="false">IF(Intervenants!D32="Vacataire",Intervenants!A32,"")</f>
-        <v/>
-      </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="7"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="6"/>
-      <c r="G33" s="9" t="str">
-        <f aca="false">IF(Intervenants!D33="Vacataire",Intervenants!A33,"")</f>
-        <v/>
-      </c>
-      <c r="H33" s="8"/>
-      <c r="I33" s="7"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6"/>
-      <c r="G34" s="9" t="str">
-        <f aca="false">IF(Intervenants!D34="Vacataire",Intervenants!A34,"")</f>
-        <v/>
-      </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="7"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="G35" s="9" t="str">
-        <f aca="false">IF(Intervenants!D35="Vacataire",Intervenants!A35,"")</f>
-        <v/>
-      </c>
-      <c r="H35" s="8"/>
-      <c r="I35" s="7"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="6"/>
-      <c r="G36" s="9" t="str">
-        <f aca="false">IF(Intervenants!D36="Vacataire",Intervenants!A36,"")</f>
-        <v/>
-      </c>
-      <c r="H36" s="8"/>
-      <c r="I36" s="7"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="6"/>
-      <c r="G37" s="9" t="str">
-        <f aca="false">IF(Intervenants!D37="Vacataire",Intervenants!A37,"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="8"/>
-      <c r="I37" s="7"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6"/>
-      <c r="G38" s="9" t="str">
-        <f aca="false">IF(Intervenants!D38="Vacataire",Intervenants!A38,"")</f>
-        <v/>
-      </c>
-      <c r="H38" s="8"/>
-      <c r="I38" s="7"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="6"/>
-      <c r="G39" s="9" t="str">
-        <f aca="false">IF(Intervenants!D39="Vacataire",Intervenants!A39,"")</f>
-        <v/>
-      </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="7"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="6"/>
-      <c r="G40" s="9" t="str">
-        <f aca="false">IF(Intervenants!D40="Vacataire",Intervenants!A40,"")</f>
-        <v/>
-      </c>
-      <c r="H40" s="8"/>
-      <c r="I40" s="7"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D40" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D8" type="list">
       <formula1>"Permanent,Vacataire"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H3:H40" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H3:H8" type="list">
       <formula1>"Salarié,Auto-entrepreneur,Fonctionnaire"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1491,20 +985,20 @@
   <dimension ref="A1:T75"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="18.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
         <v>10</v>
       </c>
@@ -1512,7 +1006,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1674,7 +1168,10 @@
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="17" t="n">
+        <f aca="false">Salles!B8</f>
+        <v>0</v>
+      </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
       <c r="H9" s="18"/>
@@ -1694,7 +1191,10 @@
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
-      <c r="E10" s="17"/>
+      <c r="E10" s="17" t="n">
+        <f aca="false">Salles!B9</f>
+        <v>0</v>
+      </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
@@ -1714,7 +1214,10 @@
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
-      <c r="E11" s="17"/>
+      <c r="E11" s="17" t="n">
+        <f aca="false">Salles!B10</f>
+        <v>0</v>
+      </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
       <c r="H11" s="18"/>
@@ -1734,7 +1237,10 @@
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
-      <c r="E12" s="17"/>
+      <c r="E12" s="17" t="n">
+        <f aca="false">Salles!B11</f>
+        <v>0</v>
+      </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
       <c r="H12" s="18"/>
@@ -1754,7 +1260,10 @@
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="17" t="n">
+        <f aca="false">Salles!B12</f>
+        <v>0</v>
+      </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
       <c r="H13" s="18"/>
@@ -1774,7 +1283,10 @@
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
-      <c r="E14" s="17"/>
+      <c r="E14" s="17" t="n">
+        <f aca="false">Salles!B13</f>
+        <v>0</v>
+      </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="18"/>
@@ -1794,7 +1306,10 @@
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
-      <c r="E15" s="17"/>
+      <c r="E15" s="17" t="n">
+        <f aca="false">Salles!B14</f>
+        <v>0</v>
+      </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
       <c r="H15" s="18"/>
@@ -1814,7 +1329,10 @@
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
-      <c r="E16" s="17"/>
+      <c r="E16" s="17" t="n">
+        <f aca="false">Salles!B15</f>
+        <v>0</v>
+      </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
       <c r="H16" s="18"/>
@@ -2214,7 +1732,7 @@
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="17"/>
+      <c r="F36" s="18"/>
       <c r="G36" s="18"/>
       <c r="H36" s="18"/>
       <c r="I36" s="18"/>
@@ -2273,10 +1791,33 @@
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="12"/>
@@ -2424,12 +1965,12 @@
     <mergeCell ref="F19:T19"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:T16 F20:G22 F23:I23 F25:I25 F26:H26 F27:G27 F32:G32" type="list">
-      <formula1>$A$3:$A$102</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F4:T16" type="list">
+      <formula1>Salles!$A$3:$A$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H20:T22 J23:T23 F24:T24 J25:T25 I26:T26 H27:T27 F28:T30 G31:T31 H32:T32 F33:T33 F34:G34" type="list">
-      <formula1>$A$3:$B$102</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F20:T39 F40:K40" type="list">
+      <formula1>Salles!$A$3:$B$102</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2448,25 +1989,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="66.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
@@ -2475,7 +2016,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>28</v>
       </c>
@@ -2501,7 +2042,7 @@
       <c r="C3" s="12"/>
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="21"/>
+      <c r="F3" s="22"/>
       <c r="H3" s="1" t="s">
         <v>34</v>
       </c>
@@ -2514,587 +2055,29 @@
       <c r="C4" s="12"/>
       <c r="D4" s="21"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="21"/>
+      <c r="F4" s="22"/>
       <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="12"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="12"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="21"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="21"/>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="12"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="21"/>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="12"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="12"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="21"/>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="12"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="12"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="12"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="12"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="21"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="21"/>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="21"/>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="12"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="12"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="12"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="21"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="12"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="12"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="21"/>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="12"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="21"/>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="12"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="21"/>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="12"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="12"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="21"/>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="12"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="21"/>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="12"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="21"/>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="12"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="21"/>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="12"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="21"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="12"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="21"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="12"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="21"/>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="12"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="21"/>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="12"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="21"/>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="12"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="12"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="12"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="12"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="21"/>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="12"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="21"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="12"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="21"/>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="12"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="21"/>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="12"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="12"/>
-      <c r="B52" s="7"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="21"/>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="12"/>
-      <c r="B53" s="7"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="21"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="12"/>
-      <c r="B54" s="7"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="21"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="12"/>
-      <c r="B55" s="7"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="21"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="12"/>
-      <c r="B56" s="7"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="21"/>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="12"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="21"/>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="12"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="21"/>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="12"/>
-      <c r="B59" s="7"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="12"/>
-      <c r="B60" s="7"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="12"/>
-      <c r="B61" s="7"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12"/>
-      <c r="B62" s="7"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="12"/>
-      <c r="B63" s="7"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="12"/>
-      <c r="B64" s="7"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B64" type="none">
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B4" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F59:F64" type="list">
-      <formula1>Groupes!$G$12:$G$19</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E4" type="list">
+      <formula1>Intervenants!$A$3:$A$91</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D64" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D4" type="list">
       <formula1>Groupes!$M$3:$M$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F4" type="list">
+      <formula1>Groupes!$G$12:$G$19</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3113,33 +2096,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="27.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="32.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.68"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="23" t="s">
         <v>11</v>
       </c>
@@ -3152,7 +2135,7 @@
       </c>
       <c r="N1" s="23"/>
     </row>
-    <row r="2" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
         <v>12</v>
       </c>
@@ -3442,7 +2425,7 @@
       <c r="E22" s="22"/>
       <c r="M22" s="12"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
       <c r="C23" s="22"/>
@@ -3450,7 +2433,7 @@
       <c r="E23" s="22"/>
       <c r="M23" s="12"/>
     </row>
-    <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="8"/>
       <c r="C24" s="22"/>
@@ -3458,7 +2441,7 @@
       <c r="E24" s="22"/>
       <c r="M24" s="12"/>
     </row>
-    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
       <c r="C25" s="22"/>
@@ -3466,7 +2449,7 @@
       <c r="E25" s="22"/>
       <c r="M25" s="12"/>
     </row>
-    <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
       <c r="B26" s="8"/>
       <c r="C26" s="22"/>
@@ -3474,47 +2457,36 @@
       <c r="E26" s="22"/>
       <c r="M26" s="12"/>
     </row>
-    <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
       <c r="B27" s="8"/>
       <c r="C27" s="22"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
-      <c r="M27" s="12"/>
-    </row>
-    <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="8"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
       <c r="E28" s="22"/>
     </row>
-    <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-    </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:D30" type="list">
-      <formula1>$A$3:$A$30</formula1>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B28" type="list">
+      <formula1>Groupes!$M$3:$M$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E30" type="list">
-      <formula1>$M$17:$M$27</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D28" type="list">
+      <formula1>Modules!$A$3:$A$28</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B30" type="list">
-      <formula1>$M$3:$M$10</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C28" type="list">
+      <formula1>Groupes!$A$3:$A$28</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E28" type="list">
+      <formula1>Groupes!$M$17:$M$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3525,6 +2497,9 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3543,9 +2518,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4155,15 +3130,14 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4217,7 +3191,7 @@
         <v>88</v>
       </c>
       <c r="B3" s="42" t="n">
-        <v>0.78125</v>
+        <v>0.760416666666667</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>89</v>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
   <si>
     <t xml:space="preserve">Liste intervenants</t>
   </si>
@@ -301,16 +301,26 @@
   </si>
   <si>
     <t xml:space="preserve">Fin de la pause déjeuner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Granularité des disponibilités</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Définit la taille des blocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(en min)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="HH:MM"/>
+    <numFmt numFmtId="167" formatCode="#,##0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -545,7 +555,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -715,6 +725,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -992,10 +1006,10 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="12.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2004,7 +2018,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +2118,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
@@ -2114,12 +2128,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,9 +2532,9 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3128,16 +3142,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,6 +3242,23 @@
       </c>
       <c r="B5" s="42" t="n">
         <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="43" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -10,8 +10,8 @@
   <sheets>
     <sheet name="Intervenants" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Salles" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Modules" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="Groupes" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Groupes" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Modules" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Cours" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Paramètres" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="91">
   <si>
     <t xml:space="preserve">Liste intervenants</t>
   </si>
@@ -108,6 +108,78 @@
     <t xml:space="preserve">Exam</t>
   </si>
   <si>
+    <t xml:space="preserve">Liste des promos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sous-groupe de…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id de vos promos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de vos promos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exemple</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT Informatique première année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INFO2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUT Informatique deuxième année</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplissez d’abord la liste des promos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des semestres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id du semestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaine de début</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semaine de fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1 | 36 | 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liste des natures de groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">(classe entière)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TD Alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TD Alternance)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TP Alt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(TP Alternance)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liste Modules</t>
   </si>
   <si>
@@ -120,94 +192,10 @@
     <t xml:space="preserve">Nom complet</t>
   </si>
   <si>
-    <t xml:space="preserve">Promo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Enseignant responsable</t>
   </si>
   <si>
     <t xml:space="preserve">Semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les semaines doivent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">être entre 0 et 53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liste des promos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sous-groupe de…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Et de…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La colonne « Et de... » est optionnelle.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id de vos promos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de vos promos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exemple</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUT Informatique première année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INFO2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DUT Informatique deuxième année</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remplissez d’abord la liste des promos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liste des semestres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Id du semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine de début</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semaine de fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1 | 36 | 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liste des natures de groupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">(classe entière)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TD Alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(TD Alternance)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TP Alt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(TP Alternance)</t>
   </si>
   <si>
     <t xml:space="preserve">Liste des types de cours</t>
@@ -440,14 +428,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFFF00FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF00FF"/>
-        <bgColor rgb="FFFF00FF"/>
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -457,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="7">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -501,20 +489,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="hair">
         <color rgb="FF333333"/>
       </left>
@@ -555,7 +529,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -636,38 +610,38 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -684,19 +658,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -724,11 +690,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="10" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="9" fillId="10" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -2003,117 +1969,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F93" activeCellId="0" sqref="F93"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="H3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="12"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B4" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E4" type="list">
-      <formula1>Intervenants!$A$3:$A$91</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D4" type="list">
-      <formula1>Groupes!$M$3:$M$10</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F4" type="list">
-      <formula1>Groupes!$G$12:$G$19</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:P28"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M17" activeCellId="0" sqref="M17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C19" activeCellId="0" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2121,386 +1980,344 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="17.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="28.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="24.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="25.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="22.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="28.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="25.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="M1" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="23"/>
-    </row>
-    <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="K1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="20"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="M2" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>43</v>
+      <c r="L2" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12"/>
       <c r="B3" s="8"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>45</v>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12"/>
       <c r="B4" s="8"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="27" t="s">
-        <v>47</v>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
       <c r="B5" s="8"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="F6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="G10" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="23"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="F10" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="G11" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>43</v>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="F11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="27" t="s">
-        <v>53</v>
+      <c r="I12" s="25" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="F13" s="12"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="F15" s="12"/>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="M15" s="23" t="s">
-        <v>54</v>
+      <c r="K15" s="20" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="M16" s="24" t="s">
+      <c r="K16" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N16" s="26" t="s">
-        <v>43</v>
+      <c r="L16" s="23" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="F17" s="12"/>
       <c r="G17" s="12"/>
       <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="27" t="s">
+      <c r="K17" s="12"/>
+      <c r="L17" s="25" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="27" t="s">
+      <c r="K18" s="12"/>
+      <c r="L18" s="25" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>56</v>
+      <c r="K19" s="12"/>
+      <c r="L19" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>58</v>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>60</v>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="M22" s="12"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="M23" s="12"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="M24" s="12"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="M25" s="12"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="M26" s="12"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="12"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B28" type="list">
-      <formula1>Groupes!$M$3:$M$20</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D28" type="list">
-      <formula1>Modules!$A$3:$A$28</formula1>
+      <formula1>Groupes!$K$3:$K$20</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C3:C28" type="list">
       <formula1>Groupes!$A$3:$A$28</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E28" type="list">
-      <formula1>Groupes!$M$17:$M$26</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D28" type="list">
+      <formula1>Groupes!$K$17:$K$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2517,15 +2334,313 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="62.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="12"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="12"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="12"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="12"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="12"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="12"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="12"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="12"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="12"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="12"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B3:B29" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E3:E29" type="list">
+      <formula1>Intervenants!$A$3:$A$91</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D3:D29" type="list">
+      <formula1>Groupes!$K$3:$K$10</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F3:F29" type="list">
+      <formula1>Groupes!$F$12:$F$19</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:V31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I47" activeCellId="0" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2538,592 +2653,812 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="23" t="s">
-        <v>61</v>
+      <c r="A1" s="20" t="s">
+        <v>57</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D1" s="30"/>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="34"/>
+        <v>60</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="36"/>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="34"/>
+      <c r="T4" s="34"/>
+      <c r="U4" s="34"/>
+      <c r="V4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="34"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="12"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="12"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="34"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="12"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34"/>
+      <c r="V9" s="34"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="12"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
-      <c r="O10" s="36"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="12"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="12"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="12"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="12"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="36"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="12"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="12"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="12"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="12"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="34"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
+      <c r="R20" s="34"/>
+      <c r="S20" s="34"/>
+      <c r="T20" s="34"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="34"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="36"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="34"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="36"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="34"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="36"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="34"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="34"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="36"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="34"/>
+      <c r="S25" s="34"/>
+      <c r="T25" s="34"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="34"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="12"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="34"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="34"/>
+      <c r="T26" s="34"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="34"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="12"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="34"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="34"/>
+      <c r="S27" s="34"/>
+      <c r="T27" s="34"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="34"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="A28" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="37" t="n">
+      <c r="B29" s="35" t="n">
         <v>90</v>
       </c>
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="J29" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37" t="s">
+      <c r="L29" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="I29" s="37" t="s">
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="37" t="s">
+      <c r="B30" s="35" t="n">
+        <v>120</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="K29" s="37" t="s">
+      <c r="D30" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="37" t="s">
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I30" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="M29" s="37"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="37" t="s">
+      <c r="J30" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B30" s="37" t="n">
-        <v>120</v>
-      </c>
-      <c r="C30" s="37" t="s">
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J30" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="K30" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B31" s="37" t="n">
+      <c r="B31" s="35" t="n">
         <v>240</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="37"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="I31" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H1:V1"/>
+  </mergeCells>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:O27" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:V27" type="list">
       <formula1>"8h,8h15,8h30,8h45,9h,9h15,9h30,9h45,10h,10h15,10h30,10h45,11h,11h15,11h30,11h45,12h00,12h15,12h30,12h45,13h,13h15,13h30,13h45,14h,14h15,14h30,14h45,15h,15h15,15h30,15h45,16h,16h15,16h30,16h45,17h,17h15,17h30,17h45,18h,18h15,18h30,18h45,19h"</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:G27" type="list">
-      <formula1>Groupes!$M$17:$M$27</formula1>
+      <formula1>Groupes!$K$17:$K$27</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -3145,120 +3480,120 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="38" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
+      <c r="A1" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="40" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="42" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="H2" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="I2" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="J2" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="I2" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="22" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="42" t="n">
+        <v>84</v>
+      </c>
+      <c r="B3" s="40" t="n">
         <v>0.760416666666667</v>
       </c>
-      <c r="D3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="H3" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="D3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="42" t="n">
+        <v>86</v>
+      </c>
+      <c r="B4" s="40" t="n">
         <v>0.520833333333333</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B5" s="42" t="n">
+        <v>87</v>
+      </c>
+      <c r="B5" s="40" t="n">
         <v>0.583333333333333</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="43" t="n">
-        <v>90</v>
+      <c r="A7" s="38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="41" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -277,7 +277,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="11">
@@ -350,7 +350,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -367,6 +367,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,7 +427,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -534,10 +540,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,6 +552,18 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -570,15 +584,19 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Warning 1" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Warning 1" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -596,7 +614,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFCCCCCC"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
@@ -651,10 +669,10 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="1" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
   </cols>
@@ -869,10 +887,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="6" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22 E6"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="9.63"/>
@@ -880,7 +898,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1092,7 +1110,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E6:E26" type="list">
-      <formula1>"Permanent,Vacataire,"</formula1>
+      <formula1>"Permanent,Vacataire"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1114,15 +1132,15 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="6" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22 A21"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="13" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1445,17 +1463,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A29" activeCellId="6" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22 A29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="3" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="18.89"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1463,10 +1484,18 @@
         <v>40</v>
       </c>
       <c r="B1" s="24"/>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26"/>
       <c r="B2" s="24"/>
+      <c r="AMG2" s="0"/>
+      <c r="AMH2" s="0"/>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
@@ -1563,223 +1592,138 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="29"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="29"/>
+      <c r="D33" s="28"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
+      <c r="D34" s="28"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="D35" s="28"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
+      <c r="D37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="29"/>
+      <c r="D38" s="28"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
+      <c r="D39" s="28"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29"/>
+      <c r="D40" s="28"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="29"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="29"/>
+      <c r="D41" s="28"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="29"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="29"/>
+      <c r="D42" s="28"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="29"/>
+      <c r="D43" s="28"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29"/>
+      <c r="D44" s="28"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
+      <c r="D45" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1788,20 +1732,19 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="A26:D26"/>
   </mergeCells>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B29:B42" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B28:B41" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C29:C42" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C28:C41" type="list">
       <formula1>Groupes!$A$17:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D29:H46" type="list">
-      <formula1>Groupes!$A$29:$A$46</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D28:D45" type="list">
+      <formula1>Groupes!$A$28:$A$45</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1823,10 +1766,10 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="5" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22"/>
+      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.21"/>
@@ -1834,7 +1777,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1867,7 +1810,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" s="30" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" s="29" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -2146,35 +2089,35 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="5" sqref="C12:I12 C14:I14 C16:I16 C18:I18 C20:I20 C22:I22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="31" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="31" width="10.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="31" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="10.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="30" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2182,7 +2125,7 @@
       <c r="A5" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="32" t="n">
         <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
@@ -2191,8 +2134,12 @@
       <c r="D5" s="31" t="s">
         <v>64</v>
       </c>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="31" t="n">
         <v>0.333333333333333</v>
       </c>
@@ -2207,167 +2154,174 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" s="35" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="33" t="s">
+    <row r="10" s="37" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="35" t="s">
         <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="36"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="36"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="36"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="36"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="36"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="36"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="36"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="36"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="A6:B6"/>
     <mergeCell ref="C10:I10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C11:I11 C13:I13 C15:I15 C17:I17 C19:I19 C21:I21" type="list">

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -36,7 +36,7 @@
     <t xml:space="preserve">Le dernier est par nature extensible : il ne faut pas toucher à l’entête mais les lignes peuvent être ajoutées, enlevées, laissées vides.</t>
   </si>
   <si>
-    <t xml:space="preserve">Dans ce dernier tableau, les identifiants doivent exister et être uniques, sinon la ligne est ignorée</t>
+    <t xml:space="preserve">Dans ce dernier tableau, les identifiants doivent exister, sinon la ligne est ignorée</t>
   </si>
   <si>
     <t xml:space="preserve">Jalon</t>
@@ -102,88 +102,91 @@
     <t xml:space="preserve">Ne pas toucher aux colonnes ou à l’entête</t>
   </si>
   <si>
+    <t xml:space="preserve">Les lignes sans identifiant sont ignorées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les identifiants doivent être uniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prénom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adresse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employeur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un groupe de salles est une liste de salles qui seront réservées d’un bloc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une catégorie de salle est une liste de salles ou de groupes dont l’un sera choisi pour recevoir le cours.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une liste est donnée en mettant un élément par colonne horizontalement jusqu’à la première case vide.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les cases Groupes et Catégories servent de délimiteurs pour le traitement automatique : l’une en dessous de l’autre, sur la même colonne, dans le même ordre.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salles concernées</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catégories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salles et groupes concernés</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée), un identifiant vide signale la fin du tableau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natures de groupes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le sur-groupe est celui immédiatement au dessus dans la hiérarchie, s’il y en a.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promotion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur-groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un module est une charge d’enseignement sur une période et une promotion.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L’abréviation est le nom dans l’emploi du temps.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le code PPN (Programme Pédagogique National) concerne certaines formations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le responsable l’est du point de vue administratif et n’est pas forcément en charge de (tout) l’enseignement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ne pas toucher aux colonnes ou à l’entête.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Les lignes vides ne sont pas un problème.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les identifiants doivent exister et être uniques, sinon la ligne est ignorée.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prénom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adresse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employeur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un groupe de salles est une liste de salles qui seront réservées d’un bloc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une catégorie de salle est une liste de salles ou de groupes dont l’un sera choisi pour recevoir le cours.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Une liste est donnée en mettant un élément par colonne horizontalement jusqu’à la première case vide.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les cases Groupes et Catégories servent de délimiteurs pour le traitement automatique : l’une en dessous de l’autre, sur la même colonne, dans le même ordre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Groupes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salles concernées</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salles et groupes concernés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée), un identifiant vide signale la fin du tableau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natures de groupes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le sur-groupe est celui immédiatement au dessus dans la hiérarchie, s’il y en a.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Promotion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sur-groupe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Un module est une charge d’enseignement sur une période et une promotion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L’abréviation est le nom dans l’emploi du temps.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le code PPN (Programme Pédagogique National) concerne certaines formations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le responsable l’est du point de vue administratif et n’est pas forcément en charge de (tout) l’enseignement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ne pas toucher aux colonnes ou à l’entête.</t>
   </si>
   <si>
     <t xml:space="preserve">Abréviation</t>
@@ -211,7 +214,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">-  la première donne le nom du type, la durée, puis la liste des types de groupe concernés </t>
+      <t xml:space="preserve">-  la première donne le nom du type, la durée, puis la liste des natures de groupe concernés </t>
     </r>
     <r>
       <rPr>
@@ -277,7 +280,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="11">
@@ -590,13 +593,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Warning 1" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -672,7 +675,7 @@
       <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
   </cols>
@@ -887,10 +890,10 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="9.63"/>
@@ -898,7 +901,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,12 +1138,12 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="13" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1465,18 +1468,17 @@
   </sheetPr>
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="18.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1769,7 +1771,7 @@
       <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.21"/>
@@ -1777,7 +1779,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1807,27 +1809,27 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" s="29" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2089,50 +2091,50 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="10.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B5" s="32" t="n">
         <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -2155,23 +2157,23 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="34" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" s="37" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -1469,7 +1469,7 @@
   <dimension ref="A1:AMJ45"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1765,21 +1765,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F22" activeCellId="0" sqref="F22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="18.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="17.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="52.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="15.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="8" width="17.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="52.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="20.6"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1806,40 +1806,45 @@
       <c r="A5" s="23" t="s">
         <v>52</v>
       </c>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AMG6" s="0"/>
+      <c r="AMH6" s="0"/>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="23" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" s="29" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+      <c r="B7" s="23"/>
+    </row>
+    <row r="9" s="29" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="I9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11"/>
@@ -1848,7 +1853,8 @@
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
-      <c r="I10" s="0"/>
+      <c r="G10" s="11"/>
+      <c r="J10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11"/>
@@ -1857,7 +1863,8 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="I11" s="0"/>
+      <c r="G11" s="11"/>
+      <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11"/>
@@ -1866,7 +1873,8 @@
       <c r="D12" s="11"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="I12" s="0"/>
+      <c r="G12" s="11"/>
+      <c r="J12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11"/>
@@ -1875,7 +1883,8 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="I13" s="0"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11"/>
@@ -1884,7 +1893,8 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="11"/>
-      <c r="I14" s="0"/>
+      <c r="G14" s="11"/>
+      <c r="J14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11"/>
@@ -1893,7 +1903,8 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
-      <c r="I15" s="0"/>
+      <c r="G15" s="11"/>
+      <c r="J15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11"/>
@@ -1902,7 +1913,8 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="I16" s="0"/>
+      <c r="G16" s="11"/>
+      <c r="J16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11"/>
@@ -1911,7 +1923,8 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="I17" s="0"/>
+      <c r="G17" s="11"/>
+      <c r="J17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11"/>
@@ -1920,7 +1933,8 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="I18" s="0"/>
+      <c r="G18" s="11"/>
+      <c r="J18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11"/>
@@ -1929,7 +1943,8 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="I19" s="0"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11"/>
@@ -1938,6 +1953,8 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="J20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11"/>
@@ -1946,6 +1963,7 @@
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11"/>
@@ -1954,6 +1972,7 @@
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11"/>
@@ -1962,6 +1981,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="11"/>
@@ -1970,6 +1990,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="11"/>
@@ -1978,6 +1999,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="11"/>
@@ -1986,6 +2008,7 @@
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="11"/>
@@ -1994,6 +2017,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11"/>
@@ -2002,6 +2026,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
@@ -2010,6 +2035,7 @@
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="11"/>
@@ -2018,6 +2044,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
@@ -2026,6 +2053,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11"/>
@@ -2034,6 +2062,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="11"/>
@@ -2042,6 +2071,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="11"/>
@@ -2050,6 +2080,7 @@
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11"/>
@@ -2058,18 +2089,28 @@
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F9:F35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G36" type="list">
       <formula1>Intervenants!$A$6:$A$26</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E9:E35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F36" type="list">
       <formula1>Paramètres!$D$14:$D$23</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D9:D35" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E36" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2091,7 +2132,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -280,7 +280,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
   <fonts count="11">
@@ -593,13 +593,13 @@
     </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -672,12 +672,21 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,7 +760,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>0.708333333333333</v>
+        <v>0.78125</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>16</v>
@@ -776,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>0.5</v>
+        <v>0.520833333333333</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -784,7 +793,7 @@
         <v>18</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>0.541666666666667</v>
+        <v>0.59375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -792,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
@@ -893,7 +902,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="17.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="9.63"/>
@@ -901,7 +910,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="11.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="17.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1138,12 +1147,12 @@
       <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="13" width="21.58"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="2" style="13" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="13" width="12.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="6" style="13" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="13" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,13 +1481,14 @@
       <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="18.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1767,11 +1777,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="8" width="17.21"/>
@@ -1779,7 +1789,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="20.6"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="8" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2132,16 +2142,16 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="10.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="30" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -202,6 +202,9 @@
   </si>
   <si>
     <t xml:space="preserve">Responsable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a</t>
   </si>
   <si>
     <t xml:space="preserve">Un type de cours se présente sur deux lignes :</t>
@@ -678,15 +681,15 @@
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,8 +901,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1777,8 +1780,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ36"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1873,7 +1876,9 @@
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="J11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2111,17 +2116,21 @@
       <c r="G36" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G36" type="list">
-      <formula1>Intervenants!$A$6:$A$26</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
+  <dataValidations count="4">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F10:F36" type="list">
       <formula1>Paramètres!$D$14:$D$23</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E10:E36" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G10:G12 G14:G36" type="list">
+      <formula1>Intervenants!$A$6:$A$500</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G13" type="list">
+      <formula1>Intervenants!$A$6:$A$500</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2142,7 +2151,7 @@
   </sheetPr>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2156,36 +2165,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="30" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="32" t="n">
         <v>60</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="31"/>
@@ -2208,7 +2217,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2218,13 +2227,13 @@
     </row>
     <row r="10" s="37" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36"/>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Paramètres" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
   <si>
     <t xml:space="preserve">Dans cette feuille, trois sous-tableaux apparaissent.</t>
   </si>
@@ -156,12 +156,24 @@
     <t xml:space="preserve">Natures de groupes</t>
   </si>
   <si>
-    <t xml:space="preserve">Le sur-groupe est celui immédiatement au dessus dans la hiérarchie, s’il y en a.</t>
+    <t xml:space="preserve">Le sur-groupe est celui immédiatement au dessus dans la hiérarchie.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les groupes structuraux d’une promotion doivent former un arbre, donc :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- chaque groupe a un unique parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- sauf un unique groupe par promotion,la racine, qui est sans parent et l'ancêtre de tous les autres</t>
   </si>
   <si>
     <t xml:space="preserve">Les identifiants doivent exister et être uniques (sinon la ligne est ignorée)</t>
   </si>
   <si>
+    <t xml:space="preserve">Groupes Structuraux</t>
+  </si>
+  <si>
     <t xml:space="preserve">Promotion</t>
   </si>
   <si>
@@ -169,6 +181,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sur-groupe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Un groupe transversal (ex : groupe d’anglais) est transversal à plusieurs groupes structuraux, et peut être parallèle à plusieurs groupes transversaux (ex : espagnol, allemand…)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupes Transversaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transversal à quels groupes structuraux ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parallèle à quels groupes transversaux ?</t>
   </si>
   <si>
     <t xml:space="preserve">Un module est une charge d’enseignement sur une période et une promotion.</t>
@@ -433,7 +457,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -548,6 +572,14 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -901,7 +933,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1478,10 +1510,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ45"/>
+  <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,7 +1521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="18.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.66"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="8" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.54"/>
   </cols>
@@ -1603,49 +1635,46 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="28"/>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="28"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="28"/>
+      <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11"/>
@@ -1737,8 +1766,406 @@
       <c r="C45" s="11"/>
       <c r="D45" s="28"/>
     </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="28"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="28"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="28"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="29"/>
+      <c r="N53" s="29"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="29"/>
+    </row>
+    <row r="54" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="30"/>
+      <c r="P54" s="30"/>
+    </row>
+    <row r="55" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="28"/>
+    </row>
+    <row r="56" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="28"/>
+    </row>
+    <row r="57" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="28"/>
+    </row>
+    <row r="58" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+      <c r="O58" s="11"/>
+      <c r="P58" s="28"/>
+    </row>
+    <row r="59" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+      <c r="O59" s="11"/>
+      <c r="P59" s="28"/>
+    </row>
+    <row r="60" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="28"/>
+    </row>
+    <row r="61" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+      <c r="O61" s="11"/>
+      <c r="P61" s="28"/>
+    </row>
+    <row r="62" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="28"/>
+    </row>
+    <row r="63" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="28"/>
+    </row>
+    <row r="64" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="28"/>
+    </row>
+    <row r="65" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="28"/>
+    </row>
+    <row r="66" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="28"/>
+    </row>
+    <row r="67" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="28"/>
+    </row>
+    <row r="68" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="28"/>
+    </row>
+    <row r="69" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="28"/>
+    </row>
+    <row r="70" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="28"/>
+    </row>
+    <row r="71" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="28"/>
+    </row>
+    <row r="72" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="28"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
@@ -1747,19 +2174,30 @@
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="J54:P54"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B28:B41" type="list">
+  <dataValidations count="5">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B44 B55:B68" type="list">
       <formula1>Groupes!$A$5:$A$11</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C28:C41" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C31:C44" type="list">
       <formula1>Groupes!$A$17:$A$21</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D28:D45" type="list">
-      <formula1>Groupes!$A$28:$A$45</formula1>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D31:D48" type="list">
+      <formula1>Groupes!$A$31:$A$48</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C55:I72" type="list">
+      <formula1>Groupes!$A$31:$A$48</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J55:P72" type="list">
+      <formula1>Groupes!$A$55:$A$72</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -1797,33 +2235,33 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B5" s="23"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
@@ -1832,31 +2270,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B7" s="23"/>
     </row>
-    <row r="9" s="29" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" s="31" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1877,7 +2315,7 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="J11" s="0"/>
     </row>
@@ -2157,222 +2595,222 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="30" width="9.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="32" width="9.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="10.05"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="30" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="32" width="10.05"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="32" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="34" t="n">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
+      <c r="C5" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="33" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="D6" s="33" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="E6" s="33" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="F6" s="33" t="n">
+        <v>0.458333333333333</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="36" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="32" t="n">
-        <v>60</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="31" t="n">
-        <v>0.333333333333333</v>
-      </c>
-      <c r="D6" s="31" t="n">
-        <v>0.375</v>
-      </c>
-      <c r="E6" s="31" t="n">
-        <v>0.416666666666667</v>
-      </c>
-      <c r="F6" s="31" t="n">
-        <v>0.458333333333333</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" s="37" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="35" t="s">
-        <v>68</v>
+    <row r="10" s="39" customFormat="true" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="37" t="s">
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38"/>
+      <c r="A11" s="40"/>
       <c r="B11" s="28"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38"/>
+      <c r="A13" s="40"/>
       <c r="B13" s="28"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="38"/>
+      <c r="A15" s="40"/>
       <c r="B15" s="28"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="40"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="38"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="28"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="39"/>
-      <c r="B18" s="39"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="38"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="28"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="38"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="28"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -1512,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A50" activeCellId="0" sqref="A50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1521,9 +1521,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.66"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1020" min="5" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1021" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.65"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="8" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1022" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1531,7 +1533,6 @@
         <v>40</v>
       </c>
       <c r="B1" s="24"/>
-      <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -1539,7 +1540,6 @@
     <row r="2" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="26"/>
       <c r="B2" s="24"/>
-      <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1813,6 +1813,7 @@
       <c r="N53" s="29"/>
       <c r="O53" s="29"/>
       <c r="P53" s="29"/>
+      <c r="Q53" s="29"/>
     </row>
     <row r="54" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
@@ -1830,15 +1831,16 @@
       <c r="G54" s="30"/>
       <c r="H54" s="30"/>
       <c r="I54" s="30"/>
-      <c r="J54" s="30" t="s">
+      <c r="J54" s="30"/>
+      <c r="K54" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="K54" s="30"/>
       <c r="L54" s="30"/>
       <c r="M54" s="30"/>
       <c r="N54" s="30"/>
       <c r="O54" s="30"/>
       <c r="P54" s="30"/>
+      <c r="Q54" s="30"/>
     </row>
     <row r="55" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="11"/>
@@ -1856,7 +1858,8 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
-      <c r="P55" s="28"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="28"/>
     </row>
     <row r="56" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="11"/>
@@ -1874,7 +1877,8 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
-      <c r="P56" s="28"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="28"/>
     </row>
     <row r="57" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="11"/>
@@ -1892,7 +1896,8 @@
       <c r="M57" s="11"/>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
-      <c r="P57" s="28"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="28"/>
     </row>
     <row r="58" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="11"/>
@@ -1910,7 +1915,8 @@
       <c r="M58" s="11"/>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
-      <c r="P58" s="28"/>
+      <c r="P58" s="11"/>
+      <c r="Q58" s="28"/>
     </row>
     <row r="59" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="11"/>
@@ -1928,7 +1934,8 @@
       <c r="M59" s="11"/>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
-      <c r="P59" s="28"/>
+      <c r="P59" s="11"/>
+      <c r="Q59" s="28"/>
     </row>
     <row r="60" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="11"/>
@@ -1946,7 +1953,8 @@
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
-      <c r="P60" s="28"/>
+      <c r="P60" s="11"/>
+      <c r="Q60" s="28"/>
     </row>
     <row r="61" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="11"/>
@@ -1964,7 +1972,8 @@
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
-      <c r="P61" s="28"/>
+      <c r="P61" s="11"/>
+      <c r="Q61" s="28"/>
     </row>
     <row r="62" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="11"/>
@@ -1982,7 +1991,8 @@
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
-      <c r="P62" s="28"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="28"/>
     </row>
     <row r="63" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="11"/>
@@ -2000,7 +2010,8 @@
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="28"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="28"/>
     </row>
     <row r="64" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="11"/>
@@ -2018,7 +2029,8 @@
       <c r="M64" s="11"/>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="28"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="28"/>
     </row>
     <row r="65" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="11"/>
@@ -2036,7 +2048,8 @@
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
-      <c r="P65" s="28"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="28"/>
     </row>
     <row r="66" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="11"/>
@@ -2054,7 +2067,8 @@
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="28"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="28"/>
     </row>
     <row r="67" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="11"/>
@@ -2072,7 +2086,8 @@
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="28"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="28"/>
     </row>
     <row r="68" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="11"/>
@@ -2090,7 +2105,8 @@
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
-      <c r="P68" s="28"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="28"/>
     </row>
     <row r="69" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="11"/>
@@ -2108,7 +2124,8 @@
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="28"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="28"/>
     </row>
     <row r="70" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="11"/>
@@ -2126,7 +2143,8 @@
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="28"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="28"/>
     </row>
     <row r="71" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="11"/>
@@ -2144,7 +2162,8 @@
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
-      <c r="P71" s="28"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="28"/>
     </row>
     <row r="72" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="11"/>
@@ -2162,7 +2181,8 @@
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="28"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2175,9 +2195,9 @@
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A53:P53"/>
+    <mergeCell ref="A53:Q53"/>
     <mergeCell ref="C54:I54"/>
-    <mergeCell ref="J54:P54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B31:B44 B55:B68" type="list">
@@ -2192,11 +2212,11 @@
       <formula1>Groupes!$A$31:$A$48</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C55:I72" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C55:J72" type="list">
       <formula1>Groupes!$A$31:$A$48</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="J55:P72" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K55:Q72" type="list">
       <formula1>Groupes!$A$55:$A$72</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -1512,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1521,7 +1521,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="16.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="29.5"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="11.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="5" style="8" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="10" min="10" style="8" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="11" style="8" width="11.52"/>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/FlOpEDT/media/configuration/empty_database_file.xlsx
+++ b/FlOpEDT/media/configuration/empty_database_file.xlsx
@@ -189,10 +189,10 @@
     <t xml:space="preserve">Groupes Transversaux</t>
   </si>
   <si>
-    <t xml:space="preserve">Transversal à quels groupes structuraux ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parallèle à quels groupes transversaux ?</t>
+    <t xml:space="preserve">Groupes structuraux en conflit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Groupes transversaux parallèles</t>
   </si>
   <si>
     <t xml:space="preserve">Un module est une charge d’enseignement sur une période et une promotion.</t>
@@ -1512,8 +1512,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H47" activeCellId="0" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
